--- a/temp2/Matritsa_rasstoyanii_774.xlsx
+++ b/temp2/Matritsa_rasstoyanii_774.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usenk\Desktop\Vch\temp2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usenk\Desktop\Project\Navigator\temp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22B8D1A-81F5-4F9C-A3C5-7AE23D62B1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC66BB0E-EA74-40CF-97FD-8A4FBC3D5805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="2175" windowWidth="21600" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="2445" windowWidth="21600" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,7 +418,7 @@
   <dimension ref="A1:BZ77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
